--- a/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
+++ b/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
   </si>
   <si>
     <t>{
-  "mobile_phone": "13652882237",
+  "mobile_phone": "13652882255",
   "pwd": "lemon123456",
   "type":"0",
   "reg_name":"管理员用户lemon"
@@ -68,7 +68,7 @@
     <t>{
   "code": 0,
   "msg": "OK",
-  "data.mobile_phone": "13652882237"
+  "data.mobile_phone": "13652882255"
 }</t>
   </si>
   <si>
@@ -451,8 +451,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -515,6 +515,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -523,14 +546,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,101 +637,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -650,14 +658,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -680,150 +680,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -837,30 +861,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,11 +891,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,24 +922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -953,6 +933,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,21 +986,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,10 +994,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,133 +1006,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,9 +1536,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="25.875" customWidth="1"/>
+    <col min="1" max="8" width="25.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:8">
@@ -1947,14 +1947,14 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" customWidth="1"/>
-    <col min="2" max="2" width="20.1" customWidth="1"/>
-    <col min="3" max="3" width="21.7" customWidth="1"/>
-    <col min="4" max="4" width="23.2" customWidth="1"/>
-    <col min="5" max="5" width="18.6" customWidth="1"/>
-    <col min="6" max="6" width="18.8" customWidth="1"/>
+    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
+    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
+    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
+    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="18.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
@@ -2011,7 +2011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="48" spans="1:8">
+    <row r="3" ht="60" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="72" spans="1:8">
+    <row r="4" ht="84" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" ht="48" spans="1:8">
+    <row r="5" ht="60" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" ht="48" spans="1:8">
+    <row r="6" ht="60" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" ht="48" spans="1:8">
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" ht="48" spans="1:8">
+    <row r="8" ht="60" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="48" spans="1:8">
+    <row r="9" ht="60" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" ht="48" spans="1:8">
+    <row r="10" ht="60" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" ht="48" spans="1:8">
+    <row r="11" ht="60" spans="1:8">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="48" spans="1:8">
+    <row r="12" ht="60" spans="1:8">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="48" spans="1:8">
+    <row r="13" ht="60" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" ht="48" spans="1:8">
+    <row r="14" ht="60" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2354,13 +2354,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" customWidth="1"/>
-    <col min="2" max="2" width="20.1" customWidth="1"/>
-    <col min="3" max="3" width="21.7" customWidth="1"/>
-    <col min="4" max="4" width="23.2" customWidth="1"/>
-    <col min="5" max="5" width="18.6" customWidth="1"/>
+    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
+    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
+    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
+    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
@@ -2392,7 +2392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="72" spans="1:8">
+    <row r="2" ht="84" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>

--- a/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
+++ b/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="322"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="80">
   <si>
     <t>序号(caseId)</t>
   </si>
@@ -58,7 +58,7 @@
   </si>
   <si>
     <t>{
-  "mobile_phone": "13652882255",
+  "mobile_phone": "{{mobile_phone}}",
   "pwd": "lemon123456",
   "type":"0",
   "reg_name":"管理员用户lemon"
@@ -68,7 +68,7 @@
     <t>{
   "code": 0,
   "msg": "OK",
-  "data.mobile_phone": "13652882255"
+  "data.mobile_phone": "{{mobile_phone}}"
 }</t>
   </si>
   <si>
@@ -76,43 +76,21 @@
   </si>
   <si>
     <t>{
-  "mobile_phone": "15815541764",
+  "mobile_phone": "{{mobile_phone+1}}",
   "pwd": "lemon666",
   "type":"",
   "reg_name":"tudou"
 }</t>
   </si>
   <si>
-    <t>{
-  "code": 0,
-  "msg": "OK",
-  "data": {
-    "id": 101,
-    "reg_name": "tudou",
-    "mobile_phone": "15815541764"
-  }
-}</t>
-  </si>
-  <si>
     <t>正常注册-普通用户，昵称为空，密码16位</t>
   </si>
   <si>
     <t>{
-  "mobile_phone": "15815541765",
+  "mobile_phone": "{{mobile_phone+1}}",
   "pwd": "lemon12345678901",
   "type":"1",
   "reg_name":""
-}</t>
-  </si>
-  <si>
-    <t>{
-  "code": 0,
-  "msg": "OK",
-  "data": {
-    "id": 102,
-    "reg_name": "小柠檬",
-    "mobile_phone": "15815541765"
-  }
 }</t>
   </si>
   <si>
@@ -440,7 +418,7 @@
     "code": 0,
     "msg": "OK",
     "data.id": {{member_id}},
-"data.mobile_phone": "13323234110"
+"data.mobile_phone": "{{mobile_phone}}"
 }</t>
   </si>
 </sst>
@@ -454,7 +432,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,16 +481,116 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -523,47 +601,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -575,67 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -643,21 +630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -680,187 +652,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,24 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -918,21 +872,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +893,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -965,9 +902,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +925,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -994,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,133 +978,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1155,6 +1127,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1176,10 +1151,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1533,37 +1505,37 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="25.8796296296296" customWidth="1"/>
+    <col min="1" max="8" width="25.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:8">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1574,16 +1546,16 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -1606,17 +1578,17 @@
       <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:8">
@@ -1627,22 +1599,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:8">
@@ -1653,22 +1625,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:8">
@@ -1679,22 +1651,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="1:8">
@@ -1705,22 +1677,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="1:8">
@@ -1731,22 +1703,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="84" customHeight="1" spans="1:8">
@@ -1757,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
@@ -1765,14 +1737,14 @@
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="84" customHeight="1" spans="1:8">
@@ -1783,22 +1755,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" ht="84" customHeight="1" spans="1:8">
@@ -1809,22 +1781,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" ht="84" customHeight="1" spans="1:8">
@@ -1835,22 +1807,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" ht="84" customHeight="1" spans="1:8">
@@ -1861,7 +1833,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -1869,14 +1841,14 @@
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="1:8">
@@ -1887,22 +1859,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" ht="84" customHeight="1" spans="1:8">
@@ -1913,22 +1885,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1944,17 +1916,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
-    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
-    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
-    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="18.7962962962963" customWidth="1"/>
+    <col min="1" max="1" width="13.3" customWidth="1"/>
+    <col min="2" max="2" width="20.1" customWidth="1"/>
+    <col min="3" max="3" width="21.7" customWidth="1"/>
+    <col min="4" max="4" width="23.2" customWidth="1"/>
+    <col min="5" max="5" width="18.6" customWidth="1"/>
+    <col min="6" max="6" width="18.8" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
@@ -1990,337 +1962,337 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" ht="60" spans="1:8">
+    </row>
+    <row r="3" ht="48" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" ht="84" spans="1:8">
+      <c r="G3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" ht="72" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" ht="60" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" ht="48" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" ht="60" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" ht="48" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" ht="60" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" ht="48" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" ht="60" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" ht="48" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" ht="60" spans="1:8">
+    </row>
+    <row r="9" ht="48" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" ht="60" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" ht="48" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="48" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" ht="48" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" ht="60" spans="1:8">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" ht="60" spans="1:8">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" ht="60" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" ht="48" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>73</v>
+      <c r="G13" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" ht="60" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" ht="48" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
+      <c r="G14" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2351,16 +2323,16 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
-    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
-    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
-    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
+    <col min="1" max="1" width="13.3" customWidth="1"/>
+    <col min="2" max="2" width="20.1" customWidth="1"/>
+    <col min="3" max="3" width="21.7" customWidth="1"/>
+    <col min="4" max="4" width="23.2" customWidth="1"/>
+    <col min="5" max="5" width="18.6" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
@@ -2397,23 +2369,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
+++ b/Hobay/Requests/test_data/api_testcases_futureloan_v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="322"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="322"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>序号(caseId)</t>
   </si>
@@ -76,21 +76,35 @@
   </si>
   <si>
     <t>{
-  "mobile_phone": "{{mobile_phone+1}}",
+  "mobile_phone": "{{mobile_phone1}}",
   "pwd": "lemon666",
   "type":"",
   "reg_name":"tudou"
 }</t>
   </si>
   <si>
+    <t>{
+  "code": 0,
+  "msg": "OK",
+  "data.mobile_phone": "{{mobile_phone1}}"
+}</t>
+  </si>
+  <si>
     <t>正常注册-普通用户，昵称为空，密码16位</t>
   </si>
   <si>
     <t>{
-  "mobile_phone": "{{mobile_phone+1}}",
+  "mobile_phone": "{{mobile_phone2}}",
   "pwd": "lemon12345678901",
   "type":"1",
   "reg_name":""
+}</t>
+  </si>
+  <si>
+    <t>{
+  "code": 0,
+  "msg": "OK",
+  "data.mobile_phone": "{{mobile_phone2}}"
 }</t>
   </si>
   <si>
@@ -428,9 +442,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -488,28 +502,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,6 +532,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,14 +553,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -555,23 +569,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,8 +607,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,14 +644,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -652,31 +666,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,19 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,127 +834,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,6 +875,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -872,6 +906,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,32 +951,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -949,15 +972,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -966,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -978,16 +992,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,115 +1010,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,13 +1518,13 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="8" width="25.8833333333333" customWidth="1"/>
+    <col min="1" max="8" width="25.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:8">
@@ -1588,7 +1602,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="84" customHeight="1" spans="1:8">
@@ -1599,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -1611,10 +1625,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="84" customHeight="1" spans="1:8">
@@ -1625,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -1637,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" ht="84" customHeight="1" spans="1:8">
@@ -1651,7 +1665,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
@@ -1663,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="84" customHeight="1" spans="1:8">
@@ -1677,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -1689,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" ht="84" customHeight="1" spans="1:8">
@@ -1703,7 +1717,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -1715,10 +1729,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="84" customHeight="1" spans="1:8">
@@ -1729,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
@@ -1741,10 +1755,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="84" customHeight="1" spans="1:8">
@@ -1755,7 +1769,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -1767,10 +1781,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="84" customHeight="1" spans="1:8">
@@ -1781,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -1793,10 +1807,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="84" customHeight="1" spans="1:8">
@@ -1807,7 +1821,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -1819,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="84" customHeight="1" spans="1:8">
@@ -1833,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -1845,10 +1859,10 @@
         <v>12</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" ht="84" customHeight="1" spans="1:8">
@@ -1859,7 +1873,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
@@ -1871,10 +1885,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="84" customHeight="1" spans="1:8">
@@ -1885,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>10</v>
@@ -1897,10 +1911,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1919,14 +1933,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" customWidth="1"/>
-    <col min="2" max="2" width="20.1" customWidth="1"/>
-    <col min="3" max="3" width="21.7" customWidth="1"/>
-    <col min="4" max="4" width="23.2" customWidth="1"/>
-    <col min="5" max="5" width="18.6" customWidth="1"/>
-    <col min="6" max="6" width="18.8" customWidth="1"/>
+    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
+    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
+    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
+    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="18.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
   </cols>
@@ -1962,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -1974,24 +1988,24 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="48" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>10</v>
@@ -2000,24 +2014,24 @@
         <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" ht="72" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -2026,24 +2040,24 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="48" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
@@ -2052,24 +2066,24 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" ht="48" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>10</v>
@@ -2078,24 +2092,24 @@
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" ht="48" spans="1:8">
+    </row>
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>10</v>
@@ -2104,24 +2118,24 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" ht="48" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" ht="60" spans="1:8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>10</v>
@@ -2130,24 +2144,24 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" ht="48" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:8">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>10</v>
@@ -2156,24 +2170,24 @@
         <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" ht="48" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" ht="60" spans="1:8">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>10</v>
@@ -2182,24 +2196,24 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" ht="60" spans="1:8">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="48" spans="1:8">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>10</v>
@@ -2208,24 +2222,24 @@
         <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="60" spans="1:8">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" ht="48" spans="1:8">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>10</v>
@@ -2234,24 +2248,24 @@
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" ht="48" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="60" spans="1:8">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>10</v>
@@ -2260,24 +2274,24 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" ht="48" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="60" spans="1:8">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
@@ -2286,13 +2300,13 @@
         <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2326,13 +2340,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.3" customWidth="1"/>
-    <col min="2" max="2" width="20.1" customWidth="1"/>
-    <col min="3" max="3" width="21.7" customWidth="1"/>
-    <col min="4" max="4" width="23.2" customWidth="1"/>
-    <col min="5" max="5" width="18.6" customWidth="1"/>
+    <col min="1" max="1" width="13.2962962962963" customWidth="1"/>
+    <col min="2" max="2" width="20.1018518518519" customWidth="1"/>
+    <col min="3" max="3" width="21.7037037037037" customWidth="1"/>
+    <col min="4" max="4" width="23.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="18.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="30.5" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
@@ -2369,23 +2383,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
